--- a/mosip_master/xlsx/status_list.xlsx
+++ b/mosip_master/xlsx/status_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t xml:space="preserve">معطل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸಕ್ರಿಯಗೊಳಿಸುವ ಸ್ಥಿತಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಿಷ್ಕ್ರಿಯಗೊಳಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सक्रिय</t>
+  </si>
+  <si>
+    <t xml:space="preserve">निष्क्रिय</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">செயல்படுத்தப்பட்டது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">செயலிழக்கப்பட்டது</t>
   </si>
 </sst>
 </file>
@@ -210,10 +237,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,6 +371,108 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
